--- a/INTLINE/data/578/NESDC/QGDP/Table 2A_historical.xlsx
+++ b/INTLINE/data/578/NESDC/QGDP/Table 2A_historical.xlsx
@@ -1,57 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Private final consumption expenditure</t>
-  </si>
-  <si>
-    <t>General government final consumption expenditure</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation</t>
-  </si>
-  <si>
-    <t>Change in inventories</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -85,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -382,669 +353,687 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Private final consumption expenditure</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1093836.442</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>1117836.045</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1142979.516</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1229736.918</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1284321.919</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>1302746.294</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>1349036.003</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>1465921.257</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>1594223.571</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>1772875.873</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>2001200.851</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>2109695.34</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>2293195.119</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>2359522</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>2545356</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>2756093</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>2894818</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>2853996</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>2562898</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>2667106</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>2854798</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>3023106</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>3211202</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>3447107</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>3703168</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>3858733</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>3966812</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>4014082</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>4127818</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>4090700</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>4313694</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>4392805</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>4714916</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>4759900</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>4785280</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>4909901</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>5051349</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>5207330</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>5445519</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>5661554</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>5606780</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>5625668</v>
       </c>
+      <c r="AR2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:44">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>General government final consumption expenditure</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>284109.6817</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>326527.6732</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>330565.9638</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>347927.9564</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>376124.2576</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>401841.7922</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>399068.1242</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>400207.8786</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>416342.4434</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>427267.0821</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>456815.6793</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>485096.997</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>516146.6693</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>491607</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>533193</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>569924</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>625828</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>643175</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>672804</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>697073</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>716305</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>734912</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>759993</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>798943</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>830075</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>896434</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>916734</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>995124</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>1044147</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>1152700</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>1255685</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>1302440</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>1395853</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>1417379</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>1457176</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>1493835</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>1526255</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>1530150</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>1571045</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>1595838</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>1617788</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>1669213</v>
       </c>
+      <c r="AR3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:44">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>529477.4429</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>563927.3414</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>561205.5971</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>642946.2928000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>680716.8764</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>655190.2145</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>650691.2851</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>770587.4575</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>939716.5664</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>1151376.366</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>1492187.446</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>1681407.583</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>1792997.134</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>2031825</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>2266018</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>2534993</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>2712099</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>2121142</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>1187278</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>1133977</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>1169038</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>1190489</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>1264207</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>1423985</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>1649896</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>1885491</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>1934759</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>1968711</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>2014697</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>1795685</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>2003971</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>2101552</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>2326978</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>2303441</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>2252515</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>2350865</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>2418543</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>2463149</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>2560082</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>2610719</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>2485109</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>2570139</v>
       </c>
+      <c r="AR4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:44">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Change in inventories</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>9003.113228</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>17336.43502</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>-9155.2117</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>18768.11422</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>16634.54941</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>17065.72765</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>198.1466334</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>2478.228316</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>41610.79301</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>11766.0029</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>28817.77656</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>39697.70121</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>24840.88991</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>26309</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>43416</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>82293</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>47735</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>-17694</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>-98100</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>-11803</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>36910</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>34017</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>48038</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>49545</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>54188</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>187949</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>11063</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>3055</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>138570</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>-183423</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>107396</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>68204</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>92683</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>183078</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>-63572</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>-111914</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>-340739</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>-68590</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>258420</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>117007</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>117469</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>336803</v>
       </c>
+      <c r="AR5" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>